--- a/biology/Zoologie/Bolitoglossa_franklini/Bolitoglossa_franklini.xlsx
+++ b/biology/Zoologie/Bolitoglossa_franklini/Bolitoglossa_franklini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa franklini est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa franklini est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre sur le versant Pacifique de l'État de Chiapas au Mexique et dans le Sud-Est du Guatemala. Elle est présente entre 1 800 et 2 500 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre sur le versant Pacifique de l'État de Chiapas au Mexique et dans le Sud-Est du Guatemala. Elle est présente entre 1 800 et 2 500 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 115 mm dont 63 mm pour la queue[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 115 mm dont 63 mm pour la queue.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa nigroflavescens[3] et Magnadigita brevipes[4] ont été placées en synonymie avec Bolitoglossa franklini par Wake et Lynch en 1982[5].
-Pour Highton en 2000, ce taxon pourrait représenter un complexe de cinq espèces[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa nigroflavescens et Magnadigita brevipes ont été placées en synonymie avec Bolitoglossa franklini par Wake et Lynch en 1982.
+Pour Highton en 2000, ce taxon pourrait représenter un complexe de cinq espèces.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Franklin James White Schmidt, frère de Karl Patterson Schmidt.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Schmidt, 1936 : Guatemalan salamanders of the genus Oedipus. Field Museum of Natural History Publication, Zoological Series, vol. 20, no 17, p. 135-166 (texte intégral).</t>
         </is>
